--- a/Result/VAR/Service/USA.xlsx
+++ b/Result/VAR/Service/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,183 +460,193 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3407692901944586</v>
+        <v>72.34092960249872</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1414159907651822</v>
+        <v>72.95951050778513</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>1.070415475378823</v>
+        <v>73.36137236789007</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3527893387174998</v>
+        <v>73.51875442378382</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.105833984295288</v>
+        <v>74.03389545435319</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.180710909234719</v>
+        <v>74.69460949141396</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3022089749878489</v>
+        <v>74.00207402173523</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1862104332551553</v>
+        <v>74.07217502173732</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5450076717607573</v>
+        <v>74.28086855872047</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4767808163963423</v>
+        <v>74.36693595235495</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>1.197324250385222</v>
+        <v>74.71671457766966</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.131913619650973</v>
+        <v>75.24942382026326</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1386079903571584</v>
+        <v>76.40254841236845</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6380272680356853</v>
+        <v>76.28678400586007</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6100508940740639</v>
+        <v>75.96643505128138</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3592341656312357</v>
+        <v>76.44862072798273</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9033679149844289</v>
+        <v>76.30746183356892</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2175586957939686</v>
+        <v>76.25519016647753</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77.20889586879613</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -684,7 +694,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1359975026832412</v>
+        <v>78.1908118133604</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -694,7 +704,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03767167414662487</v>
+        <v>78.65616790684274</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -704,7 +714,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00700673527342429</v>
+        <v>78.95916476804982</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -714,7 +724,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05747166018238761</v>
+        <v>79.18807914553707</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -724,7 +734,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00768585344091622</v>
+        <v>79.4029233093725</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -740,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,253 +782,243 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>71.80902863255352</v>
+        <v>72.01627479649052</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>72.41981985859105</v>
+        <v>72.66846524196396</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>72.68984179443413</v>
+        <v>73.15379277812596</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>72.81844773951202</v>
+        <v>73.56991917248546</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>74.01746915996874</v>
+        <v>74.37646558173626</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>74.86370124170796</v>
+        <v>74.96367348104403</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>74.60409933915189</v>
+        <v>73.93475026621596</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1637865273611</v>
+        <v>74.13188402123686</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>74.02568269055816</v>
+        <v>74.5482418880127</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>73.70136842050006</v>
+        <v>74.70502478976584</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>73.92206182220272</v>
+        <v>75.0525440757213</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>74.61953604030172</v>
+        <v>75.30704884507884</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>76.51433450878595</v>
+        <v>75.92417070488955</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>76.2772193576192</v>
+        <v>75.98135873268225</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>75.9014962160953</v>
+        <v>75.94993938340575</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>76.16380034260708</v>
+        <v>76.43047194405115</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>75.81605357504479</v>
+        <v>76.49875058174268</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>75.82754097311374</v>
+        <v>75.96199922990164</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>76.74239628616712</v>
+        <v>76.66692080970635</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>77.43969290342653</v>
+        <v>77.78822742833998</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>77.03139272153369</v>
+        <v>77.02383730693224</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>76.73973785773181</v>
+        <v>78.01199533504766</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>77.1995025991171</v>
+        <v>78.57268224529909</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>80.1364098690393</v>
+        <v>78.75857137442458</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B26" t="n">
-        <v>78.37621815015305</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1066,7 +1066,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>2.938412292653664</v>
+        <v>80.33846099324258</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.245562208069365</v>
+        <v>81.28082971015223</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5831750287797361</v>
+        <v>83.86410321987955</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2299501380519766</v>
+        <v>86.76272510373077</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1106,7 +1106,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1556290181103329</v>
+        <v>90.78314159926836</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
